--- a/xlsx/分析_intext.xlsx
+++ b/xlsx/分析_intext.xlsx
@@ -29,13 +29,13 @@
     <t>分析 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_智庫_分析</t>
+    <t>政策_政策_智库_分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%9D%82</t>
